--- a/JEpisodic_MTT_100Trials_RawData.xlsx
+++ b/JEpisodic_MTT_100Trials_RawData.xlsx
@@ -13,6 +13,47 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>PILFER 4</t>
+  </si>
+  <si>
+    <t>PILFER 124</t>
+  </si>
+  <si>
+    <t>DEGRADE 4</t>
+  </si>
+  <si>
+    <t>DEGRADE 124</t>
+  </si>
+  <si>
+    <t>REPLENISH 4</t>
+  </si>
+  <si>
+    <t>REPLENISH 124</t>
+  </si>
+  <si>
+    <t>SEM: .1899</t>
+  </si>
+  <si>
+    <t>SEM: .1992</t>
+  </si>
+  <si>
+    <t>SEM: .1653</t>
+  </si>
+  <si>
+    <t>SEM: .1682</t>
+  </si>
+  <si>
+    <t>SEM: .1524</t>
+  </si>
+  <si>
+    <t>SEM: .1493</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,57 +388,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -412,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -420,76 +469,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -497,19 +546,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -517,19 +566,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -537,16 +586,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -557,16 +606,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -577,179 +626,179 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>6</v>
@@ -760,36 +809,36 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -797,39 +846,39 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -840,39 +889,39 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -880,19 +929,19 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -900,27 +949,27 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -929,30 +978,30 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -960,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -969,24 +1018,24 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -997,116 +1046,116 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -1117,22 +1166,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1146,30 +1195,30 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -1177,102 +1226,102 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>7</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>5</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1280,16 +1329,16 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -1297,22 +1346,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1320,39 +1369,39 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1366,13 +1415,13 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1380,19 +1429,19 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1400,59 +1449,59 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>6</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1460,36 +1509,36 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H57">
         <v>7</v>
@@ -1497,79 +1546,79 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>6</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -1580,50 +1629,50 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>5</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -1632,27 +1681,27 @@
         <v>6</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1660,16 +1709,16 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -1677,150 +1726,150 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>7</v>
@@ -1829,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -1837,36 +1886,36 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -1880,59 +1929,59 @@
         <v>6</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>5</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -1940,36 +1989,36 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81">
         <v>5</v>
@@ -1977,19 +2026,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -1997,59 +2046,59 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83">
         <v>6</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H85">
         <v>7</v>
@@ -2057,22 +2106,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2083,76 +2132,76 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>6</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90">
         <v>7</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G90">
         <v>6</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2169,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2180,36 +2229,36 @@
         <v>7</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H93">
         <v>5</v>
@@ -2217,36 +2266,36 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H94">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G95">
         <v>6</v>
@@ -2257,62 +2306,62 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2323,10 +2372,10 @@
         <v>4</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>6</v>
@@ -2340,49 +2389,90 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <f>AVERAGE(A1:A100)</f>
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <f>AVERAGE(A2:A101)</f>
         <v>4.6399999999999997</v>
       </c>
-      <c r="B101">
-        <f>AVERAGE(B1:B100)</f>
+      <c r="B102">
+        <f>AVERAGE(B2:B101)</f>
         <v>3.65</v>
       </c>
-      <c r="D101">
-        <f>AVERAGE(D1:D100)</f>
+      <c r="D102">
+        <f>AVERAGE(D2:D101)</f>
         <v>4.79</v>
       </c>
-      <c r="E101">
-        <f>AVERAGE(E1:E100)</f>
+      <c r="E102">
+        <f>AVERAGE(E2:E101)</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="G101">
-        <f>AVERAGE(G1:G100)</f>
+      <c r="G102">
+        <f>AVERAGE(G2:G101)</f>
         <v>5.09</v>
       </c>
-      <c r="H101">
-        <f>AVERAGE(H1:H100)</f>
+      <c r="H102">
+        <f>AVERAGE(H2:H101)</f>
         <v>5.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
